--- a/eval/result.xlsx
+++ b/eval/result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="case2_varyIter" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="41">
   <si>
     <t>iterations</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,9 +78,6 @@
   </si>
   <si>
     <t>8threads</t>
-  </si>
-  <si>
-    <t>iter varies</t>
   </si>
   <si>
     <t>warp</t>
@@ -145,22 +142,46 @@
   <si>
     <t>lock performs badly.</t>
   </si>
+  <si>
+    <t>w/l</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stm/w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L/W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s/l</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>l/w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s/w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -233,7 +254,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -310,25 +331,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>84</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>167</c:v>
+                  <c:v>164</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>244</c:v>
+                  <c:v>251</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>321</c:v>
+                  <c:v>334</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>404</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>486</c:v>
+                  <c:v>496</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>560</c:v>
+                  <c:v>568</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>641</c:v>
@@ -404,34 +425,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>24</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>55</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>77</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>102</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>114</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>144</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>159</c:v>
+                  <c:v>132</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>157</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -498,28 +519,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>130</c:v>
+                  <c:v>143</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>185</c:v>
+                  <c:v>227</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>230</c:v>
+                  <c:v>266</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>294</c:v>
+                  <c:v>367</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>388</c:v>
+                  <c:v>398</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>472</c:v>
+                  <c:v>546</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>569</c:v>
+                  <c:v>577</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>547</c:v>
+                  <c:v>614</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>620</c:v>
@@ -540,11 +561,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="71198400"/>
-        <c:axId val="71198976"/>
+        <c:axId val="525345920"/>
+        <c:axId val="525346496"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="71198400"/>
+        <c:axId val="525345920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -554,12 +575,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71198976"/>
+        <c:crossAx val="525346496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="71198976"/>
+        <c:axId val="525346496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -570,7 +591,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71198400"/>
+        <c:crossAx val="525345920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -595,7 +616,7 @@
           <a:pPr>
             <a:defRPr sz="1400" b="1"/>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -605,8 +626,8 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup orientation="landscape"/>
+    <c:pageMargins b="0.75" l="1.2649999999999999" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -614,7 +635,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1015,11 +1036,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="71201280"/>
-        <c:axId val="71201856"/>
+        <c:axId val="525348800"/>
+        <c:axId val="525349376"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="71201280"/>
+        <c:axId val="525348800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1029,12 +1050,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71201856"/>
+        <c:crossAx val="525349376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="71201856"/>
+        <c:axId val="525349376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1045,7 +1066,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71201280"/>
+        <c:crossAx val="525348800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1070,7 +1091,7 @@
           <a:pPr>
             <a:defRPr sz="1400" b="1"/>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1089,7 +1110,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1163,31 +1184,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>17</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24</c:v>
+                  <c:v>212</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>49</c:v>
+                  <c:v>412</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>64</c:v>
+                  <c:v>610</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>83</c:v>
+                  <c:v>810</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>103</c:v>
+                  <c:v>1013</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>123</c:v>
+                  <c:v>1203</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>146</c:v>
+                  <c:v>1411</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>164</c:v>
+                  <c:v>1610</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1251,31 +1272,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>18</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18</c:v>
+                  <c:v>113</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20</c:v>
+                  <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25</c:v>
+                  <c:v>124</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>26</c:v>
+                  <c:v>138</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31</c:v>
+                  <c:v>179</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>35</c:v>
+                  <c:v>208</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40</c:v>
+                  <c:v>245</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>49</c:v>
+                  <c:v>289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1339,31 +1360,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>56</c:v>
+                  <c:v>164</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>56</c:v>
+                  <c:v>273</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>78</c:v>
+                  <c:v>388</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>91</c:v>
+                  <c:v>520</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>137</c:v>
+                  <c:v>720</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>147</c:v>
+                  <c:v>1011</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>159</c:v>
+                  <c:v>1216</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>196</c:v>
+                  <c:v>1495</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>222</c:v>
+                  <c:v>1877</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1378,11 +1399,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="71204160"/>
-        <c:axId val="103350272"/>
+        <c:axId val="525351680"/>
+        <c:axId val="525352256"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="71204160"/>
+        <c:axId val="525351680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1392,12 +1413,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103350272"/>
+        <c:crossAx val="525352256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="103350272"/>
+        <c:axId val="525352256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1408,7 +1429,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71204160"/>
+        <c:crossAx val="525351680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1433,7 +1454,7 @@
           <a:pPr>
             <a:defRPr sz="1400" b="1"/>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1443,8 +1464,8 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup orientation="landscape" horizontalDpi="1200" verticalDpi="1200"/>
+    <c:pageMargins b="0.75" l="1.2649999999999999" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -1452,7 +1473,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1529,28 +1550,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>84</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>161</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>244</c:v>
+                  <c:v>261</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>325</c:v>
+                  <c:v>336</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>398</c:v>
+                  <c:v>413</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>473</c:v>
+                  <c:v>493</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>563</c:v>
+                  <c:v>579</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>643</c:v>
+                  <c:v>666</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>724</c:v>
@@ -1623,31 +1644,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>27</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>38</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>57</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>68</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>108</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>115</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>115</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>157</c:v>
+                  <c:v>119</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>162</c:v>
+                  <c:v>134</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>157</c:v>
@@ -1717,34 +1738,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>75</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>98</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>96</c:v>
+                  <c:v>124</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>133</c:v>
+                  <c:v>151</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>144</c:v>
+                  <c:v>161</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>154</c:v>
+                  <c:v>189</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>158</c:v>
+                  <c:v>183</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>167</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>200</c:v>
+                  <c:v>242</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>195</c:v>
+                  <c:v>229</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1759,11 +1780,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="60645952"/>
-        <c:axId val="92511552"/>
+        <c:axId val="525182656"/>
+        <c:axId val="525183232"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="60645952"/>
+        <c:axId val="525182656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1773,12 +1794,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92511552"/>
+        <c:crossAx val="525183232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="92511552"/>
+        <c:axId val="525183232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1789,7 +1810,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60645952"/>
+        <c:crossAx val="525182656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1814,7 +1835,7 @@
           <a:pPr>
             <a:defRPr sz="1400" b="1"/>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1824,8 +1845,8 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="1.3149999999999999" header="0.3" footer="0.3"/>
+    <c:pageSetup paperSize="9" orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -1833,7 +1854,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1907,31 +1928,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>17</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24</c:v>
+                  <c:v>214</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>49</c:v>
+                  <c:v>410</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>64</c:v>
+                  <c:v>667</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>83</c:v>
+                  <c:v>810</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>103</c:v>
+                  <c:v>1009</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>123</c:v>
+                  <c:v>1214</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>146</c:v>
+                  <c:v>1549</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>164</c:v>
+                  <c:v>1610</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1995,31 +2016,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>18</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>26</c:v>
+                  <c:v>151</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31</c:v>
+                  <c:v>183</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>35</c:v>
+                  <c:v>213</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40</c:v>
+                  <c:v>259</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>49</c:v>
+                  <c:v>268</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2083,31 +2104,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>47</c:v>
+                  <c:v>172</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>51</c:v>
+                  <c:v>179</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50</c:v>
+                  <c:v>187</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>64</c:v>
+                  <c:v>187</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>67</c:v>
+                  <c:v>228</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>73</c:v>
+                  <c:v>237</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>75</c:v>
+                  <c:v>272</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>78</c:v>
+                  <c:v>292</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>82</c:v>
+                  <c:v>320</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2122,11 +2143,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="106245504"/>
-        <c:axId val="106244352"/>
+        <c:axId val="525185536"/>
+        <c:axId val="525186112"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="106245504"/>
+        <c:axId val="525185536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2136,12 +2157,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106244352"/>
+        <c:crossAx val="525186112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="106244352"/>
+        <c:axId val="525186112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2152,7 +2173,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106245504"/>
+        <c:crossAx val="525185536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2177,7 +2198,7 @@
           <a:pPr>
             <a:defRPr sz="1400" b="1"/>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2187,8 +2208,8 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="1.3149999999999999" header="0.3" footer="0.3"/>
+    <c:pageSetup paperSize="9" orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -2196,7 +2217,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2276,31 +2297,31 @@
                   <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>167</c:v>
+                  <c:v>174</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>244</c:v>
+                  <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>323</c:v>
+                  <c:v>332</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>408</c:v>
+                  <c:v>415</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>483</c:v>
+                  <c:v>490</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>560</c:v>
+                  <c:v>570</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>646</c:v>
+                  <c:v>651</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>719</c:v>
+                  <c:v>728</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>806</c:v>
+                  <c:v>812</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2367,34 +2388,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>24</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>55</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>77</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>80</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>101</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>114</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>128</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>152</c:v>
+                  <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>157</c:v>
+                  <c:v>137</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2461,31 +2482,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>104</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>109</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>134</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>157</c:v>
+                  <c:v>132</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>179</c:v>
+                  <c:v>152</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>184</c:v>
+                  <c:v>182</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>201</c:v>
+                  <c:v>199</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>221</c:v>
@@ -2503,11 +2524,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="106248960"/>
-        <c:axId val="106249536"/>
+        <c:axId val="525188416"/>
+        <c:axId val="526352384"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="106248960"/>
+        <c:axId val="525188416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2517,12 +2538,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106249536"/>
+        <c:crossAx val="526352384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="106249536"/>
+        <c:axId val="526352384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2533,7 +2554,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106248960"/>
+        <c:crossAx val="525188416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2558,7 +2579,7 @@
           <a:pPr>
             <a:defRPr sz="1400" b="1"/>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2568,8 +2589,8 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="1.3149999999999999" header="0.3" footer="0.3"/>
+    <c:pageSetup paperSize="9" orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -2577,7 +2598,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2651,31 +2672,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>14</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26</c:v>
+                  <c:v>205</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43</c:v>
+                  <c:v>405</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>66</c:v>
+                  <c:v>603</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>83</c:v>
+                  <c:v>807</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>106</c:v>
+                  <c:v>1009</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>120</c:v>
+                  <c:v>1208</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>144</c:v>
+                  <c:v>1404</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>167</c:v>
+                  <c:v>1604</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2739,31 +2760,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>17</c:v>
+                  <c:v>113</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17</c:v>
+                  <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20</c:v>
+                  <c:v>121</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27</c:v>
+                  <c:v>147</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>39</c:v>
+                  <c:v>181</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30</c:v>
+                  <c:v>186</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>36</c:v>
+                  <c:v>218</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>39</c:v>
+                  <c:v>237</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2827,31 +2848,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>45</c:v>
+                  <c:v>143</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60</c:v>
+                  <c:v>156</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>76</c:v>
+                  <c:v>155</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>101</c:v>
+                  <c:v>162</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>114</c:v>
+                  <c:v>215</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>143</c:v>
+                  <c:v>240</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>164</c:v>
+                  <c:v>265</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>185</c:v>
+                  <c:v>276</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>265</c:v>
+                  <c:v>333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2866,11 +2887,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="60677440"/>
-        <c:axId val="60676288"/>
+        <c:axId val="526354688"/>
+        <c:axId val="526355264"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="60677440"/>
+        <c:axId val="526354688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2880,12 +2901,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60676288"/>
+        <c:crossAx val="526355264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="60676288"/>
+        <c:axId val="526355264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2896,7 +2917,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60677440"/>
+        <c:crossAx val="526354688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2921,7 +2942,7 @@
           <a:pPr>
             <a:defRPr sz="1400" b="1"/>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2931,8 +2952,8 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="1.3149999999999999" header="0.3" footer="0.3"/>
+    <c:pageSetup paperSize="9" orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -2940,7 +2961,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3017,34 +3038,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>84</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>167</c:v>
+                  <c:v>169</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>246</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>325</c:v>
+                  <c:v>327</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>408</c:v>
+                  <c:v>409</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>484</c:v>
+                  <c:v>488</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>565</c:v>
+                  <c:v>571</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>644</c:v>
+                  <c:v>648</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>724</c:v>
+                  <c:v>727</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>806</c:v>
+                  <c:v>875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3117,28 +3138,28 @@
                   <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>58</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>64</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>93</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>109</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>133</c:v>
+                  <c:v>136</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>150</c:v>
+                  <c:v>121</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>157</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3205,34 +3226,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>64</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>91</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>93</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>112</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>133</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>134</c:v>
+                  <c:v>155</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>150</c:v>
+                  <c:v>189</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>178</c:v>
+                  <c:v>171</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>170</c:v>
+                  <c:v>193</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>212</c:v>
+                  <c:v>203</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3247,11 +3268,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="60647680"/>
-        <c:axId val="58604864"/>
+        <c:axId val="526357568"/>
+        <c:axId val="526358144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="60647680"/>
+        <c:axId val="526357568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3261,12 +3282,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58604864"/>
+        <c:crossAx val="526358144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="58604864"/>
+        <c:axId val="526358144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3277,7 +3298,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60647680"/>
+        <c:crossAx val="526357568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3302,7 +3323,7 @@
           <a:pPr>
             <a:defRPr sz="1400" b="1"/>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3312,8 +3333,8 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="1.3149999999999999" header="0.3" footer="0.3"/>
+    <c:pageSetup paperSize="9" orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -3321,7 +3342,7 @@
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3395,31 +3416,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>14</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24</c:v>
+                  <c:v>207</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44</c:v>
+                  <c:v>413</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>65</c:v>
+                  <c:v>608</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>86</c:v>
+                  <c:v>811</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>107</c:v>
+                  <c:v>1007</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>145</c:v>
+                  <c:v>1208</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>144</c:v>
+                  <c:v>1408</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>165</c:v>
+                  <c:v>1612</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3483,31 +3504,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>15</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18</c:v>
+                  <c:v>123</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25</c:v>
+                  <c:v>148</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>26</c:v>
+                  <c:v>168</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>29</c:v>
+                  <c:v>188</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>36</c:v>
+                  <c:v>205</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>33</c:v>
+                  <c:v>231</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3571,31 +3592,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>36</c:v>
+                  <c:v>146</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>38</c:v>
+                  <c:v>161</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>48</c:v>
+                  <c:v>182</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>52</c:v>
+                  <c:v>169</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>55</c:v>
+                  <c:v>212</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50</c:v>
+                  <c:v>235</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>62</c:v>
+                  <c:v>280</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>61</c:v>
+                  <c:v>275</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>93</c:v>
+                  <c:v>296</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3610,11 +3631,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="58601408"/>
-        <c:axId val="58598528"/>
+        <c:axId val="526835712"/>
+        <c:axId val="526836288"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="58601408"/>
+        <c:axId val="526835712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3624,12 +3645,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58598528"/>
+        <c:crossAx val="526836288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="58598528"/>
+        <c:axId val="526836288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3640,7 +3661,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58601408"/>
+        <c:crossAx val="526835712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3665,7 +3686,7 @@
           <a:pPr>
             <a:defRPr sz="1400" b="1"/>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3675,8 +3696,8 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="1.3149999999999999" header="0.3" footer="0.3"/>
+    <c:pageSetup paperSize="9" orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -3755,16 +3776,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>57149</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>61911</xdr:rowOff>
+      <xdr:rowOff>33336</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>238124</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>400051</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3792,8 +3813,8 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
@@ -3827,8 +3848,8 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
@@ -3861,15 +3882,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
+      <xdr:colOff>323850</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:rowOff>157162</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3897,8 +3918,8 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
@@ -3932,8 +3953,8 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
@@ -3967,8 +3988,8 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
@@ -4286,12 +4307,12 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4299,122 +4320,123 @@
         <v>11</v>
       </c>
       <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
-        <v>16</v>
-      </c>
       <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
         <v>21</v>
-      </c>
-      <c r="F1" t="s">
-        <v>22</v>
       </c>
       <c r="H1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>10</v>
       </c>
       <c r="B2">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="C2">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D2">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="E2">
         <f>B2/C2</f>
-        <v>3.5</v>
+        <v>2.90625</v>
       </c>
       <c r="F2">
         <f>D2/C2</f>
-        <v>5.416666666666667</v>
+        <v>4.46875</v>
       </c>
       <c r="H2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>20</v>
       </c>
       <c r="B3">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C3">
         <v>40</v>
       </c>
       <c r="D3">
-        <v>185</v>
+        <v>227</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E11" si="0">B3/C3</f>
-        <v>4.1749999999999998</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F11" si="1">D3/C3</f>
-        <v>4.625</v>
-      </c>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>5.6749999999999998</v>
+      </c>
+      <c r="G3">
+        <f>H1:H4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>30</v>
       </c>
       <c r="B4">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C4">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D4">
-        <v>230</v>
+        <v>266</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>4.4363636363636365</v>
+        <v>4.3275862068965516</v>
       </c>
       <c r="F4">
         <f t="shared" si="1"/>
-        <v>4.1818181818181817</v>
+        <v>4.5862068965517242</v>
       </c>
       <c r="K4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>40</v>
       </c>
       <c r="B5">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="C5">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D5">
-        <v>294</v>
+        <v>367</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>4.1688311688311686</v>
+        <v>4.4533333333333331</v>
       </c>
       <c r="F5">
         <f t="shared" si="1"/>
-        <v>3.8181818181818183</v>
+        <v>4.8933333333333335</v>
       </c>
       <c r="K5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>50</v>
       </c>
@@ -4425,7 +4447,7 @@
         <v>87</v>
       </c>
       <c r="D6">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
@@ -4433,57 +4455,57 @@
       </c>
       <c r="F6">
         <f t="shared" si="1"/>
-        <v>4.4597701149425291</v>
+        <v>4.5747126436781613</v>
       </c>
       <c r="K6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>60</v>
       </c>
       <c r="B7">
-        <v>486</v>
+        <v>496</v>
       </c>
       <c r="C7">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="D7">
-        <v>472</v>
+        <v>546</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>4.7647058823529411</v>
+        <v>5.5730337078651688</v>
       </c>
       <c r="F7">
         <f t="shared" si="1"/>
-        <v>4.6274509803921573</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>6.1348314606741576</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>70</v>
       </c>
       <c r="B8">
-        <v>560</v>
+        <v>568</v>
       </c>
       <c r="C8">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D8">
-        <v>569</v>
+        <v>577</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>4.9122807017543861</v>
+        <v>5.2110091743119265</v>
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
-        <v>4.9912280701754383</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>5.2935779816513762</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>80</v>
       </c>
@@ -4491,21 +4513,21 @@
         <v>641</v>
       </c>
       <c r="C9">
-        <v>144</v>
+        <v>116</v>
       </c>
       <c r="D9">
-        <v>547</v>
+        <v>614</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>4.4513888888888893</v>
+        <v>5.5258620689655169</v>
       </c>
       <c r="F9">
         <f t="shared" si="1"/>
-        <v>3.7986111111111112</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>5.2931034482758621</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>90</v>
       </c>
@@ -4513,21 +4535,21 @@
         <v>728</v>
       </c>
       <c r="C10">
-        <v>159</v>
+        <v>132</v>
       </c>
       <c r="D10">
         <v>620</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>4.5786163522012577</v>
+        <v>5.5151515151515156</v>
       </c>
       <c r="F10">
         <f t="shared" si="1"/>
-        <v>3.89937106918239</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>4.6969696969696972</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>100</v>
       </c>
@@ -4535,18 +4557,18 @@
         <v>808</v>
       </c>
       <c r="C11">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="D11">
         <v>696</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>5.1464968152866239</v>
+        <v>5.7304964539007095</v>
       </c>
       <c r="F11">
         <f t="shared" si="1"/>
-        <v>4.4331210191082802</v>
+        <v>4.9361702127659575</v>
       </c>
     </row>
   </sheetData>
@@ -4565,9 +4587,9 @@
       <selection activeCell="U14" sqref="U14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -4596,7 +4618,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>10</v>
       </c>
@@ -4625,7 +4647,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>20</v>
       </c>
@@ -4645,7 +4667,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>30</v>
       </c>
@@ -4665,7 +4687,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>40</v>
       </c>
@@ -4685,7 +4707,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>50</v>
       </c>
@@ -4705,7 +4727,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>60</v>
       </c>
@@ -4725,7 +4747,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>70</v>
       </c>
@@ -4745,7 +4767,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>80</v>
       </c>
@@ -4765,7 +4787,7 @@
         <v>1930</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>90</v>
       </c>
@@ -4785,7 +4807,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>100</v>
       </c>
@@ -4814,7 +4836,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="D13" t="s">
         <v>10</v>
       </c>
@@ -4831,167 +4853,245 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D10"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
         <v>11</v>
       </c>
       <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
-        <v>16</v>
+      <c r="E1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" t="s">
+        <v>36</v>
       </c>
       <c r="H1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>17</v>
+        <v>112</v>
       </c>
       <c r="C2">
+        <v>112</v>
+      </c>
+      <c r="D2">
+        <v>164</v>
+      </c>
+      <c r="E2">
+        <f>B2/C2</f>
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <f>D2/C2</f>
+        <v>1.4642857142857142</v>
+      </c>
+      <c r="H2" t="s">
         <v>18</v>
       </c>
-      <c r="D2">
-        <v>56</v>
-      </c>
-      <c r="H2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>24</v>
+        <v>212</v>
       </c>
       <c r="C3">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="D3">
-        <v>56</v>
+        <v>273</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E10" si="0">B3/C3</f>
+        <v>1.8761061946902655</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F10" si="1">D3/C3</f>
+        <v>2.415929203539823</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>4</v>
       </c>
       <c r="B4">
-        <v>49</v>
+        <v>412</v>
       </c>
       <c r="C4">
-        <v>20</v>
+        <v>118</v>
       </c>
       <c r="D4">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>388</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>3.4915254237288136</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>3.2881355932203391</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>6</v>
       </c>
       <c r="B5">
-        <v>64</v>
+        <v>610</v>
       </c>
       <c r="C5">
-        <v>25</v>
+        <v>124</v>
       </c>
       <c r="D5">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>520</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>4.919354838709677</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>4.193548387096774</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>8</v>
       </c>
       <c r="B6">
-        <v>83</v>
+        <v>810</v>
       </c>
       <c r="C6">
-        <v>26</v>
+        <v>138</v>
       </c>
       <c r="D6">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>720</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>5.8695652173913047</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>5.2173913043478262</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>10</v>
       </c>
       <c r="B7">
-        <v>103</v>
+        <v>1013</v>
       </c>
       <c r="C7">
-        <v>31</v>
+        <v>179</v>
       </c>
       <c r="D7">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>1011</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>5.6592178770949717</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>5.6480446927374306</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>12</v>
       </c>
       <c r="B8">
-        <v>123</v>
+        <v>1203</v>
       </c>
       <c r="C8">
-        <v>35</v>
+        <v>208</v>
       </c>
       <c r="D8">
-        <v>159</v>
+        <v>1216</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>5.7836538461538458</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>5.8461538461538458</v>
       </c>
       <c r="J8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>14</v>
       </c>
       <c r="B9">
-        <v>146</v>
+        <v>1411</v>
       </c>
       <c r="C9">
-        <v>40</v>
+        <v>245</v>
       </c>
       <c r="D9">
-        <v>196</v>
+        <v>1495</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>5.759183673469388</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>6.1020408163265305</v>
       </c>
       <c r="J9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>16</v>
       </c>
       <c r="B10">
-        <v>164</v>
+        <v>1610</v>
       </c>
       <c r="C10">
-        <v>49</v>
+        <v>289</v>
       </c>
       <c r="D10">
-        <v>222</v>
+        <v>1877</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>5.570934256055363</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>6.4948096885813147</v>
       </c>
       <c r="J10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -5006,54 +5106,54 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
         <v>11</v>
       </c>
       <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
-        <v>16</v>
-      </c>
       <c r="E1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" t="s">
         <v>31</v>
       </c>
-      <c r="F1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>10</v>
       </c>
       <c r="B2">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C2">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="E2">
         <f>B2/C2</f>
-        <v>3.1111111111111112</v>
+        <v>2.375</v>
       </c>
       <c r="F2">
         <f>D2/C2</f>
-        <v>2.7777777777777777</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>2.4249999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>20</v>
       </c>
@@ -5061,159 +5161,159 @@
         <v>161</v>
       </c>
       <c r="C3">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="D3">
-        <v>98</v>
+        <v>140</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E11" si="0">B3/C3</f>
-        <v>4.2368421052631575</v>
+        <v>2.6833333333333331</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F11" si="1">D3/C3</f>
-        <v>2.5789473684210527</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>2.3333333333333335</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>30</v>
       </c>
       <c r="B4">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="C4">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D4">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>4.2807017543859649</v>
+        <v>4.4237288135593218</v>
       </c>
       <c r="F4">
         <f t="shared" si="1"/>
-        <v>1.6842105263157894</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>2.1016949152542375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>40</v>
       </c>
       <c r="B5">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="C5">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D5">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>4.7794117647058822</v>
+        <v>4.602739726027397</v>
       </c>
       <c r="F5">
         <f t="shared" si="1"/>
-        <v>1.9558823529411764</v>
+        <v>2.0684931506849313</v>
       </c>
       <c r="I5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>50</v>
       </c>
       <c r="B6">
-        <v>398</v>
+        <v>413</v>
       </c>
       <c r="C6">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D6">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>3.6851851851851851</v>
+        <v>4.0891089108910892</v>
       </c>
       <c r="F6">
         <f t="shared" si="1"/>
-        <v>1.3333333333333333</v>
+        <v>1.5940594059405941</v>
       </c>
       <c r="I6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>60</v>
       </c>
       <c r="B7">
-        <v>473</v>
+        <v>493</v>
       </c>
       <c r="C7">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D7">
-        <v>154</v>
+        <v>189</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>4.1130434782608694</v>
+        <v>4.4017857142857144</v>
       </c>
       <c r="F7">
         <f t="shared" si="1"/>
-        <v>1.3391304347826087</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>1.6875</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>70</v>
       </c>
       <c r="B8">
-        <v>563</v>
+        <v>579</v>
       </c>
       <c r="C8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D8">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>4.8956521739130432</v>
+        <v>4.9913793103448274</v>
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
-        <v>1.3739130434782609</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>1.5775862068965518</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>80</v>
       </c>
       <c r="B9">
-        <v>643</v>
+        <v>666</v>
       </c>
       <c r="C9">
-        <v>157</v>
+        <v>119</v>
       </c>
       <c r="D9">
-        <v>167</v>
+        <v>210</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>4.0955414012738851</v>
+        <v>5.5966386554621845</v>
       </c>
       <c r="F9">
         <f t="shared" si="1"/>
-        <v>1.0636942675159236</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>1.7647058823529411</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>90</v>
       </c>
@@ -5221,21 +5321,21 @@
         <v>724</v>
       </c>
       <c r="C10">
-        <v>162</v>
+        <v>134</v>
       </c>
       <c r="D10">
-        <v>200</v>
+        <v>242</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>4.4691358024691361</v>
+        <v>5.4029850746268657</v>
       </c>
       <c r="F10">
         <f t="shared" si="1"/>
-        <v>1.2345679012345678</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>1.8059701492537314</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>100</v>
       </c>
@@ -5246,7 +5346,7 @@
         <v>157</v>
       </c>
       <c r="D11">
-        <v>195</v>
+        <v>229</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
@@ -5254,12 +5354,14 @@
       </c>
       <c r="F11">
         <f t="shared" si="1"/>
-        <v>1.2420382165605095</v>
+        <v>1.4585987261146496</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5268,158 +5370,237 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D10"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
         <v>11</v>
       </c>
       <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="E1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>17</v>
+        <v>120</v>
       </c>
       <c r="C2">
-        <v>18</v>
+        <v>114</v>
       </c>
       <c r="D2">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>172</v>
+      </c>
+      <c r="E2">
+        <f>B2/C2</f>
+        <v>1.0526315789473684</v>
+      </c>
+      <c r="F2">
+        <f>D2/C2</f>
+        <v>1.5087719298245614</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>24</v>
+        <v>214</v>
       </c>
       <c r="C3">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="D3">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>179</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E10" si="0">B3/C3</f>
+        <v>1.9107142857142858</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F10" si="1">D3/C3</f>
+        <v>1.5982142857142858</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>4</v>
       </c>
       <c r="B4">
-        <v>49</v>
+        <v>410</v>
       </c>
       <c r="C4">
-        <v>20</v>
+        <v>116</v>
       </c>
       <c r="D4">
-        <v>50</v>
+        <v>187</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>3.5344827586206895</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>1.6120689655172413</v>
       </c>
       <c r="J4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>6</v>
       </c>
       <c r="B5">
-        <v>64</v>
+        <v>667</v>
       </c>
       <c r="C5">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="D5">
-        <v>64</v>
+        <v>187</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>5.5583333333333336</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>1.5583333333333333</v>
       </c>
       <c r="J5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>8</v>
       </c>
       <c r="B6">
-        <v>83</v>
+        <v>810</v>
       </c>
       <c r="C6">
-        <v>26</v>
+        <v>151</v>
       </c>
       <c r="D6">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>228</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>5.3642384105960268</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>1.509933774834437</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>10</v>
       </c>
       <c r="B7">
-        <v>103</v>
+        <v>1009</v>
       </c>
       <c r="C7">
-        <v>31</v>
+        <v>183</v>
       </c>
       <c r="D7">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>237</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>5.5136612021857925</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>1.2950819672131149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>12</v>
       </c>
       <c r="B8">
-        <v>123</v>
+        <v>1214</v>
       </c>
       <c r="C8">
-        <v>35</v>
+        <v>213</v>
       </c>
       <c r="D8">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>272</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>5.699530516431925</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>1.2769953051643192</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>14</v>
       </c>
       <c r="B9">
-        <v>146</v>
+        <v>1549</v>
       </c>
       <c r="C9">
-        <v>40</v>
+        <v>259</v>
       </c>
       <c r="D9">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>292</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>5.980694980694981</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>1.1274131274131274</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>16</v>
       </c>
       <c r="B10">
-        <v>164</v>
+        <v>1610</v>
       </c>
       <c r="C10">
-        <v>49</v>
+        <v>268</v>
       </c>
       <c r="D10">
-        <v>82</v>
+        <v>320</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>6.0074626865671643</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>1.1940298507462686</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -5427,15 +5608,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D11"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5443,13 +5624,19 @@
         <v>11</v>
       </c>
       <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>10</v>
       </c>
@@ -5457,141 +5644,223 @@
         <v>84</v>
       </c>
       <c r="C2">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>74</v>
+      </c>
+      <c r="E2">
+        <f>B2/C2</f>
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <f>D2/C2</f>
+        <v>2.6428571428571428</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>20</v>
       </c>
       <c r="B3">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="C3">
         <v>40</v>
       </c>
       <c r="D3">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>92</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E11" si="0">B3/C3</f>
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F11" si="1">D3/C3</f>
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>30</v>
       </c>
       <c r="B4">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="C4">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D4">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>100</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>4.3965517241379306</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>1.7241379310344827</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>40</v>
       </c>
       <c r="B5">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="C5">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D5">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>111</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>4.8115942028985508</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>1.6086956521739131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>50</v>
       </c>
       <c r="B6">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="C6">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D6">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>133</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>5.6081081081081079</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>1.7972972972972974</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>60</v>
       </c>
       <c r="B7">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="C7">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D7">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>132</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>5.1578947368421053</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>1.3894736842105264</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>70</v>
       </c>
       <c r="B8">
-        <v>560</v>
+        <v>570</v>
       </c>
       <c r="C8">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="D8">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>152</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>4.6721311475409832</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>1.2459016393442623</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>80</v>
       </c>
       <c r="B9">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="C9">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="D9">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>182</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>5.4249999999999998</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>1.5166666666666666</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>90</v>
       </c>
       <c r="B10">
-        <v>719</v>
+        <v>728</v>
       </c>
       <c r="C10">
-        <v>152</v>
+        <v>126</v>
       </c>
       <c r="D10">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>199</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>5.7777777777777777</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>1.5793650793650793</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>100</v>
       </c>
       <c r="B11">
-        <v>806</v>
+        <v>812</v>
       </c>
       <c r="C11">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="D11">
         <v>221</v>
       </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>5.9270072992700733</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>1.6131386861313868</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5600,152 +5869,153 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D11"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
         <v>11</v>
       </c>
       <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="C2">
-        <v>17</v>
+        <v>113</v>
       </c>
       <c r="D2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>26</v>
+        <v>205</v>
       </c>
       <c r="C3">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="D3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>4</v>
       </c>
       <c r="B4">
-        <v>43</v>
+        <v>405</v>
       </c>
       <c r="C4">
-        <v>20</v>
+        <v>121</v>
       </c>
       <c r="D4">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>6</v>
       </c>
       <c r="B5">
-        <v>66</v>
+        <v>603</v>
       </c>
       <c r="C5">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="D5">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>8</v>
       </c>
       <c r="B6">
-        <v>83</v>
+        <v>807</v>
       </c>
       <c r="C6">
-        <v>27</v>
+        <v>147</v>
       </c>
       <c r="D6">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>10</v>
       </c>
       <c r="B7">
-        <v>106</v>
+        <v>1009</v>
       </c>
       <c r="C7">
-        <v>39</v>
+        <v>181</v>
       </c>
       <c r="D7">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>12</v>
       </c>
       <c r="B8">
-        <v>120</v>
+        <v>1208</v>
       </c>
       <c r="C8">
-        <v>30</v>
+        <v>186</v>
       </c>
       <c r="D8">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>14</v>
       </c>
       <c r="B9">
-        <v>144</v>
+        <v>1404</v>
       </c>
       <c r="C9">
-        <v>36</v>
+        <v>218</v>
       </c>
       <c r="D9">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>16</v>
       </c>
       <c r="B10">
-        <v>167</v>
+        <v>1604</v>
       </c>
       <c r="C10">
-        <v>39</v>
+        <v>237</v>
       </c>
       <c r="D10">
-        <v>265</v>
+        <v>333</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -5756,12 +6026,12 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T20" sqref="T20"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5769,153 +6039,154 @@
         <v>11</v>
       </c>
       <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>10</v>
       </c>
       <c r="B2">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C2">
         <v>34</v>
       </c>
       <c r="D2">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>20</v>
       </c>
       <c r="B3">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C3">
         <v>41</v>
       </c>
       <c r="D3">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>30</v>
       </c>
       <c r="B4">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="C4">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D4">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>40</v>
       </c>
       <c r="B5">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C5">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D5">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>50</v>
       </c>
       <c r="B6">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C6">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="D6">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>60</v>
       </c>
       <c r="B7">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="C7">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="D7">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>70</v>
       </c>
       <c r="B8">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="C8">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="D8">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>80</v>
       </c>
       <c r="B9">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="C9">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D9">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>90</v>
       </c>
       <c r="B10">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="C10">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="D10">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>100</v>
       </c>
       <c r="B11">
-        <v>806</v>
+        <v>875</v>
       </c>
       <c r="C11">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="D11">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -5926,152 +6197,153 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U20" sqref="U20"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
         <v>11</v>
       </c>
       <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="C2">
-        <v>15</v>
+        <v>116</v>
       </c>
       <c r="D2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>24</v>
+        <v>207</v>
       </c>
       <c r="C3">
-        <v>18</v>
+        <v>117</v>
       </c>
       <c r="D3">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>4</v>
       </c>
       <c r="B4">
-        <v>44</v>
+        <v>413</v>
       </c>
       <c r="C4">
-        <v>18</v>
+        <v>114</v>
       </c>
       <c r="D4">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>6</v>
       </c>
       <c r="B5">
-        <v>65</v>
+        <v>608</v>
       </c>
       <c r="C5">
-        <v>18</v>
+        <v>123</v>
       </c>
       <c r="D5">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>8</v>
       </c>
       <c r="B6">
-        <v>86</v>
+        <v>811</v>
       </c>
       <c r="C6">
-        <v>25</v>
+        <v>148</v>
       </c>
       <c r="D6">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>10</v>
       </c>
       <c r="B7">
-        <v>107</v>
+        <v>1007</v>
       </c>
       <c r="C7">
-        <v>26</v>
+        <v>168</v>
       </c>
       <c r="D7">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>12</v>
       </c>
       <c r="B8">
-        <v>145</v>
+        <v>1208</v>
       </c>
       <c r="C8">
-        <v>29</v>
+        <v>188</v>
       </c>
       <c r="D8">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>14</v>
       </c>
       <c r="B9">
-        <v>144</v>
+        <v>1408</v>
       </c>
       <c r="C9">
-        <v>36</v>
+        <v>205</v>
       </c>
       <c r="D9">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>16</v>
       </c>
       <c r="B10">
-        <v>165</v>
+        <v>1612</v>
       </c>
       <c r="C10">
-        <v>33</v>
+        <v>231</v>
       </c>
       <c r="D10">
-        <v>93</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
